--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66817045285916</v>
+        <v>2.229205</v>
       </c>
       <c r="H2">
-        <v>1.66817045285916</v>
+        <v>6.687615</v>
       </c>
       <c r="I2">
-        <v>0.01126210726716597</v>
+        <v>0.01491733042403661</v>
       </c>
       <c r="J2">
-        <v>0.01126210726716597</v>
+        <v>0.01491733042403661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.79158894200756</v>
+        <v>18.70849033333333</v>
       </c>
       <c r="N2">
-        <v>1.79158894200756</v>
+        <v>56.125471</v>
       </c>
       <c r="O2">
-        <v>0.3624646391796518</v>
+        <v>0.8518406098705651</v>
       </c>
       <c r="P2">
-        <v>0.3624646391796518</v>
+        <v>0.851840609870565</v>
       </c>
       <c r="Q2">
-        <v>2.988675736726215</v>
+        <v>41.70506019351834</v>
       </c>
       <c r="R2">
-        <v>2.988675736726215</v>
+        <v>375.345541741665</v>
       </c>
       <c r="S2">
-        <v>0.004082115646995848</v>
+        <v>0.01270718784605208</v>
       </c>
       <c r="T2">
-        <v>0.004082115646995848</v>
+        <v>0.01270718784605208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66817045285916</v>
+        <v>2.229205</v>
       </c>
       <c r="H3">
-        <v>1.66817045285916</v>
+        <v>6.687615</v>
       </c>
       <c r="I3">
-        <v>0.01126210726716597</v>
+        <v>0.01491733042403661</v>
       </c>
       <c r="J3">
-        <v>0.01126210726716597</v>
+        <v>0.01491733042403661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.62458573033198</v>
+        <v>1.675494666666667</v>
       </c>
       <c r="N3">
-        <v>1.62458573033198</v>
+        <v>5.026484</v>
       </c>
       <c r="O3">
-        <v>0.3286774475741921</v>
+        <v>0.07628912719618224</v>
       </c>
       <c r="P3">
-        <v>0.3286774475741921</v>
+        <v>0.07628912719618224</v>
       </c>
       <c r="Q3">
-        <v>2.710085913476428</v>
+        <v>3.735021088406666</v>
       </c>
       <c r="R3">
-        <v>2.710085913476428</v>
+        <v>33.61518979566</v>
       </c>
       <c r="S3">
-        <v>0.003701600670878872</v>
+        <v>0.001138030118146808</v>
       </c>
       <c r="T3">
-        <v>0.003701600670878872</v>
+        <v>0.001138030118146808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66817045285916</v>
+        <v>2.229205</v>
       </c>
       <c r="H4">
-        <v>1.66817045285916</v>
+        <v>6.687615</v>
       </c>
       <c r="I4">
-        <v>0.01126210726716597</v>
+        <v>0.01491733042403661</v>
       </c>
       <c r="J4">
-        <v>0.01126210726716597</v>
+        <v>0.01491733042403661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52662180585589</v>
+        <v>1.578445666666666</v>
       </c>
       <c r="N4">
-        <v>1.52662180585589</v>
+        <v>4.735336999999999</v>
       </c>
       <c r="O4">
-        <v>0.3088579132461561</v>
+        <v>0.07187026293325273</v>
       </c>
       <c r="P4">
-        <v>0.3088579132461561</v>
+        <v>0.07187026293325273</v>
       </c>
       <c r="Q4">
-        <v>2.546665389219289</v>
+        <v>3.518678972361666</v>
       </c>
       <c r="R4">
-        <v>2.546665389219289</v>
+        <v>31.668110751255</v>
       </c>
       <c r="S4">
-        <v>0.003478390949291252</v>
+        <v>0.001072112459837722</v>
       </c>
       <c r="T4">
-        <v>0.003478390949291252</v>
+        <v>0.001072112459837722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>92.31533739122639</v>
+        <v>92.64273566666667</v>
       </c>
       <c r="H5">
-        <v>92.31533739122639</v>
+        <v>277.928207</v>
       </c>
       <c r="I5">
-        <v>0.6232368103167608</v>
+        <v>0.6199440156137945</v>
       </c>
       <c r="J5">
-        <v>0.6232368103167608</v>
+        <v>0.6199440156137944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.79158894200756</v>
+        <v>18.70849033333333</v>
       </c>
       <c r="N5">
-        <v>1.79158894200756</v>
+        <v>56.125471</v>
       </c>
       <c r="O5">
-        <v>0.3624646391796518</v>
+        <v>0.8518406098705651</v>
       </c>
       <c r="P5">
-        <v>0.3624646391796518</v>
+        <v>0.851840609870565</v>
       </c>
       <c r="Q5">
-        <v>165.3911376478182</v>
+        <v>1733.205724673389</v>
       </c>
       <c r="R5">
-        <v>165.3911376478182</v>
+        <v>15598.85152206049</v>
       </c>
       <c r="S5">
-        <v>0.2259013055749418</v>
+        <v>0.5280934883460618</v>
       </c>
       <c r="T5">
-        <v>0.2259013055749418</v>
+        <v>0.5280934883460617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.31533739122639</v>
+        <v>92.64273566666667</v>
       </c>
       <c r="H6">
-        <v>92.31533739122639</v>
+        <v>277.928207</v>
       </c>
       <c r="I6">
-        <v>0.6232368103167608</v>
+        <v>0.6199440156137945</v>
       </c>
       <c r="J6">
-        <v>0.6232368103167608</v>
+        <v>0.6199440156137944</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62458573033198</v>
+        <v>1.675494666666667</v>
       </c>
       <c r="N6">
-        <v>1.62458573033198</v>
+        <v>5.026484</v>
       </c>
       <c r="O6">
-        <v>0.3286774475741921</v>
+        <v>0.07628912719618224</v>
       </c>
       <c r="P6">
-        <v>0.3286774475741921</v>
+        <v>0.07628912719618224</v>
       </c>
       <c r="Q6">
-        <v>149.9741798165687</v>
+        <v>155.2224095149098</v>
       </c>
       <c r="R6">
-        <v>149.9741798165687</v>
+        <v>1397.001685634188</v>
       </c>
       <c r="S6">
-        <v>0.2048438840491939</v>
+        <v>0.04729498786167276</v>
       </c>
       <c r="T6">
-        <v>0.2048438840491939</v>
+        <v>0.04729498786167275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.31533739122639</v>
+        <v>92.64273566666667</v>
       </c>
       <c r="H7">
-        <v>92.31533739122639</v>
+        <v>277.928207</v>
       </c>
       <c r="I7">
-        <v>0.6232368103167608</v>
+        <v>0.6199440156137945</v>
       </c>
       <c r="J7">
-        <v>0.6232368103167608</v>
+        <v>0.6199440156137944</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.52662180585589</v>
+        <v>1.578445666666666</v>
       </c>
       <c r="N7">
-        <v>1.52662180585589</v>
+        <v>4.735336999999999</v>
       </c>
       <c r="O7">
-        <v>0.3088579132461561</v>
+        <v>0.07187026293325273</v>
       </c>
       <c r="P7">
-        <v>0.3088579132461561</v>
+        <v>0.07187026293325273</v>
       </c>
       <c r="Q7">
-        <v>140.9306070763898</v>
+        <v>146.2315246611954</v>
       </c>
       <c r="R7">
-        <v>140.9306070763898</v>
+        <v>1316.083721950759</v>
       </c>
       <c r="S7">
-        <v>0.1924916206926252</v>
+        <v>0.04455553940605995</v>
       </c>
       <c r="T7">
-        <v>0.1924916206926252</v>
+        <v>0.04455553940605994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.1389006258298</v>
+        <v>54.56532033333333</v>
       </c>
       <c r="H8">
-        <v>54.1389006258298</v>
+        <v>163.695961</v>
       </c>
       <c r="I8">
-        <v>0.3655010824160733</v>
+        <v>0.365138653962169</v>
       </c>
       <c r="J8">
-        <v>0.3655010824160733</v>
+        <v>0.365138653962169</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.79158894200756</v>
+        <v>18.70849033333333</v>
       </c>
       <c r="N8">
-        <v>1.79158894200756</v>
+        <v>56.125471</v>
       </c>
       <c r="O8">
-        <v>0.3624646391796518</v>
+        <v>0.8518406098705651</v>
       </c>
       <c r="P8">
-        <v>0.3624646391796518</v>
+        <v>0.851840609870565</v>
       </c>
       <c r="Q8">
-        <v>96.99465569368283</v>
+        <v>1020.834767991403</v>
       </c>
       <c r="R8">
-        <v>96.99465569368283</v>
+        <v>9187.512911922629</v>
       </c>
       <c r="S8">
-        <v>0.1324812179577142</v>
+        <v>0.3110399336784513</v>
       </c>
       <c r="T8">
-        <v>0.1324812179577142</v>
+        <v>0.3110399336784512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.1389006258298</v>
+        <v>54.56532033333333</v>
       </c>
       <c r="H9">
-        <v>54.1389006258298</v>
+        <v>163.695961</v>
       </c>
       <c r="I9">
-        <v>0.3655010824160733</v>
+        <v>0.365138653962169</v>
       </c>
       <c r="J9">
-        <v>0.3655010824160733</v>
+        <v>0.365138653962169</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.62458573033198</v>
+        <v>1.675494666666667</v>
       </c>
       <c r="N9">
-        <v>1.62458573033198</v>
+        <v>5.026484</v>
       </c>
       <c r="O9">
-        <v>0.3286774475741921</v>
+        <v>0.07628912719618224</v>
       </c>
       <c r="P9">
-        <v>0.3286774475741921</v>
+        <v>0.07628912719618224</v>
       </c>
       <c r="Q9">
-        <v>87.95328541258419</v>
+        <v>91.42390320345821</v>
       </c>
       <c r="R9">
-        <v>87.95328541258419</v>
+        <v>822.815128831124</v>
       </c>
       <c r="S9">
-        <v>0.1201319628541194</v>
+        <v>0.02785610921636268</v>
       </c>
       <c r="T9">
-        <v>0.1201319628541194</v>
+        <v>0.02785610921636268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.1389006258298</v>
+        <v>54.56532033333333</v>
       </c>
       <c r="H10">
-        <v>54.1389006258298</v>
+        <v>163.695961</v>
       </c>
       <c r="I10">
-        <v>0.3655010824160733</v>
+        <v>0.365138653962169</v>
       </c>
       <c r="J10">
-        <v>0.3655010824160733</v>
+        <v>0.365138653962169</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.52662180585589</v>
+        <v>1.578445666666666</v>
       </c>
       <c r="N10">
-        <v>1.52662180585589</v>
+        <v>4.735336999999999</v>
       </c>
       <c r="O10">
-        <v>0.3088579132461561</v>
+        <v>0.07187026293325273</v>
       </c>
       <c r="P10">
-        <v>0.3088579132461561</v>
+        <v>0.07187026293325273</v>
       </c>
       <c r="Q10">
-        <v>82.64962624045687</v>
+        <v>86.12839343042853</v>
       </c>
       <c r="R10">
-        <v>82.64962624045687</v>
+        <v>775.1555408738568</v>
       </c>
       <c r="S10">
-        <v>0.1128879016042397</v>
+        <v>0.02624261106735507</v>
       </c>
       <c r="T10">
-        <v>0.1128879016042397</v>
+        <v>0.02624261106735507</v>
       </c>
     </row>
   </sheetData>
